--- a/Team-Data/2011-12/3-19-2011-12.xlsx
+++ b/Team-Data/2011-12/3-19-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,37 +733,37 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" t="n">
         <v>26</v>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.578</v>
       </c>
       <c r="H2" t="n">
         <v>48.8</v>
       </c>
       <c r="I2" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J2" t="n">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="K2" t="n">
-        <v>0.442</v>
+        <v>0.444</v>
       </c>
       <c r="L2" t="n">
         <v>7.5</v>
       </c>
       <c r="M2" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="N2" t="n">
-        <v>0.38</v>
+        <v>0.381</v>
       </c>
       <c r="O2" t="n">
         <v>14.7</v>
@@ -705,61 +772,61 @@
         <v>20.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.724</v>
+        <v>0.725</v>
       </c>
       <c r="R2" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S2" t="n">
-        <v>31</v>
+        <v>30.8</v>
       </c>
       <c r="T2" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="U2" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V2" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W2" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X2" t="n">
         <v>4.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z2" t="n">
         <v>17.7</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.7</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF2" t="n">
         <v>10</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH2" t="n">
         <v>3</v>
       </c>
       <c r="AI2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ2" t="n">
         <v>19</v>
@@ -768,7 +835,7 @@
         <v>16</v>
       </c>
       <c r="AL2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM2" t="n">
         <v>14</v>
@@ -795,25 +862,25 @@
         <v>25</v>
       </c>
       <c r="AU2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AW2" t="n">
         <v>10</v>
       </c>
       <c r="AX2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ2" t="n">
         <v>3</v>
       </c>
       <c r="BA2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB2" t="n">
         <v>23</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-19-2011-12</t>
+          <t>2012-03-19</t>
         </is>
       </c>
     </row>
@@ -848,28 +915,28 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" t="n">
         <v>21</v>
       </c>
       <c r="G3" t="n">
-        <v>0.533</v>
+        <v>0.523</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="J3" t="n">
-        <v>76.90000000000001</v>
+        <v>77</v>
       </c>
       <c r="K3" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L3" t="n">
         <v>5.6</v>
@@ -884,25 +951,25 @@
         <v>15.6</v>
       </c>
       <c r="P3" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.776</v>
+        <v>0.774</v>
       </c>
       <c r="R3" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="T3" t="n">
         <v>38.1</v>
       </c>
       <c r="U3" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="V3" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W3" t="n">
         <v>7.1</v>
@@ -911,28 +978,28 @@
         <v>5.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AA3" t="n">
         <v>19.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>91.09999999999999</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="AC3" t="n">
         <v>0.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF3" t="n">
         <v>14</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>13</v>
       </c>
       <c r="AG3" t="n">
         <v>14</v>
@@ -959,7 +1026,7 @@
         <v>8</v>
       </c>
       <c r="AO3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP3" t="n">
         <v>27</v>
@@ -980,16 +1047,16 @@
         <v>2</v>
       </c>
       <c r="AV3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ3" t="n">
         <v>21</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-19-2011-12</t>
+          <t>2012-03-19</t>
         </is>
       </c>
     </row>
@@ -1030,85 +1097,85 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" t="n">
-        <v>0.159</v>
+        <v>0.163</v>
       </c>
       <c r="H4" t="n">
         <v>48.1</v>
       </c>
       <c r="I4" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="J4" t="n">
-        <v>80.40000000000001</v>
+        <v>80.5</v>
       </c>
       <c r="K4" t="n">
         <v>0.416</v>
       </c>
       <c r="L4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="M4" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="N4" t="n">
-        <v>0.304</v>
+        <v>0.305</v>
       </c>
       <c r="O4" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="P4" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.746</v>
+        <v>0.747</v>
       </c>
       <c r="R4" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S4" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="T4" t="n">
-        <v>39.4</v>
+        <v>39.6</v>
       </c>
       <c r="U4" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V4" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W4" t="n">
         <v>6.3</v>
       </c>
       <c r="X4" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Y4" t="n">
         <v>6</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="AA4" t="n">
         <v>20</v>
       </c>
       <c r="AB4" t="n">
-        <v>87.3</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-13.1</v>
+        <v>-12.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1138,13 +1205,13 @@
         <v>26</v>
       </c>
       <c r="AN4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO4" t="n">
         <v>18</v>
       </c>
       <c r="AP4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ4" t="n">
         <v>21</v>
@@ -1162,13 +1229,13 @@
         <v>21</v>
       </c>
       <c r="AV4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW4" t="n">
         <v>29</v>
       </c>
       <c r="AX4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY4" t="n">
         <v>26</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-19-2011-12</t>
+          <t>2012-03-19</t>
         </is>
       </c>
     </row>
@@ -1212,43 +1279,43 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" t="n">
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>0.792</v>
+        <v>0.787</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="J5" t="n">
-        <v>82.3</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L5" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M5" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="N5" t="n">
         <v>0.38</v>
       </c>
       <c r="O5" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="P5" t="n">
-        <v>21.6</v>
+        <v>21.9</v>
       </c>
       <c r="Q5" t="n">
         <v>0.73</v>
@@ -1257,13 +1324,13 @@
         <v>13.7</v>
       </c>
       <c r="S5" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T5" t="n">
-        <v>46.2</v>
+        <v>46.1</v>
       </c>
       <c r="U5" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="V5" t="n">
         <v>14</v>
@@ -1281,13 +1348,13 @@
         <v>17.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="AB5" t="n">
-        <v>97.59999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -1305,7 +1372,7 @@
         <v>29</v>
       </c>
       <c r="AI5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ5" t="n">
         <v>7</v>
@@ -1323,10 +1390,10 @@
         <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AQ5" t="n">
         <v>24</v>
@@ -1350,7 +1417,7 @@
         <v>23</v>
       </c>
       <c r="AX5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY5" t="n">
         <v>16</v>
@@ -1362,7 +1429,7 @@
         <v>28</v>
       </c>
       <c r="BB5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BC5" t="n">
         <v>1</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-19-2011-12</t>
+          <t>2012-03-19</t>
         </is>
       </c>
     </row>
@@ -1394,34 +1461,34 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" t="n">
         <v>26</v>
       </c>
       <c r="G6" t="n">
-        <v>0.395</v>
+        <v>0.381</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
       </c>
       <c r="I6" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="J6" t="n">
-        <v>81.7</v>
+        <v>81.5</v>
       </c>
       <c r="K6" t="n">
-        <v>0.428</v>
+        <v>0.427</v>
       </c>
       <c r="L6" t="n">
         <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="N6" t="n">
         <v>0.359</v>
@@ -1433,22 +1500,22 @@
         <v>25.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.703</v>
+        <v>0.704</v>
       </c>
       <c r="R6" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="S6" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="T6" t="n">
-        <v>42.7</v>
+        <v>42.5</v>
       </c>
       <c r="U6" t="n">
         <v>20.5</v>
       </c>
       <c r="V6" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W6" t="n">
         <v>7.7</v>
@@ -1460,19 +1527,19 @@
         <v>6.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>94.90000000000001</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>-4.1</v>
+        <v>-4.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE6" t="n">
         <v>23</v>
@@ -1487,10 +1554,10 @@
         <v>20</v>
       </c>
       <c r="AI6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AJ6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK6" t="n">
         <v>27</v>
@@ -1514,10 +1581,10 @@
         <v>28</v>
       </c>
       <c r="AR6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT6" t="n">
         <v>13</v>
@@ -1526,7 +1593,7 @@
         <v>19</v>
       </c>
       <c r="AV6" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AW6" t="n">
         <v>16</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-19-2011-12</t>
+          <t>2012-03-19</t>
         </is>
       </c>
     </row>
@@ -1576,82 +1643,82 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" t="n">
         <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>0.574</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="H7" t="n">
         <v>48.3</v>
       </c>
       <c r="I7" t="n">
-        <v>36</v>
+        <v>35.8</v>
       </c>
       <c r="J7" t="n">
-        <v>81.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="K7" t="n">
-        <v>0.44</v>
+        <v>0.438</v>
       </c>
       <c r="L7" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="M7" t="n">
         <v>22.4</v>
       </c>
       <c r="N7" t="n">
-        <v>0.333</v>
+        <v>0.331</v>
       </c>
       <c r="O7" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="P7" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.757</v>
+        <v>0.756</v>
       </c>
       <c r="R7" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S7" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T7" t="n">
         <v>43.3</v>
       </c>
       <c r="U7" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="V7" t="n">
         <v>14.5</v>
       </c>
       <c r="W7" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="X7" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AB7" t="n">
-        <v>95.09999999999999</v>
+        <v>94.7</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="AD7" t="n">
         <v>2</v>
@@ -1660,25 +1727,25 @@
         <v>7</v>
       </c>
       <c r="AF7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
         <v>19</v>
       </c>
       <c r="AI7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM7" t="n">
         <v>4</v>
@@ -1687,28 +1754,28 @@
         <v>20</v>
       </c>
       <c r="AO7" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AP7" t="n">
         <v>23</v>
       </c>
       <c r="AQ7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW7" t="n">
         <v>3</v>
@@ -1726,10 +1793,10 @@
         <v>25</v>
       </c>
       <c r="BB7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-19-2011-12</t>
+          <t>2012-03-19</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" t="n">
         <v>25</v>
       </c>
       <c r="F8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G8" t="n">
-        <v>0.543</v>
+        <v>0.556</v>
       </c>
       <c r="H8" t="n">
         <v>48.9</v>
@@ -1776,10 +1843,10 @@
         <v>38.1</v>
       </c>
       <c r="J8" t="n">
-        <v>81.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.466</v>
+        <v>0.467</v>
       </c>
       <c r="L8" t="n">
         <v>6.6</v>
@@ -1788,31 +1855,31 @@
         <v>20.6</v>
       </c>
       <c r="N8" t="n">
-        <v>0.321</v>
+        <v>0.322</v>
       </c>
       <c r="O8" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="P8" t="n">
-        <v>28.1</v>
+        <v>28.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.737</v>
+        <v>0.736</v>
       </c>
       <c r="R8" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S8" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T8" t="n">
-        <v>43.5</v>
+        <v>43.7</v>
       </c>
       <c r="U8" t="n">
         <v>23.6</v>
       </c>
       <c r="V8" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W8" t="n">
         <v>8.6</v>
@@ -1821,31 +1888,31 @@
         <v>5.2</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA8" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.5</v>
+        <v>103.7</v>
       </c>
       <c r="AC8" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF8" t="n">
         <v>11</v>
       </c>
-      <c r="AF8" t="n">
-        <v>13</v>
-      </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH8" t="n">
         <v>1</v>
@@ -1857,7 +1924,7 @@
         <v>14</v>
       </c>
       <c r="AK8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL8" t="n">
         <v>17</v>
@@ -1866,7 +1933,7 @@
         <v>9</v>
       </c>
       <c r="AN8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO8" t="n">
         <v>2</v>
@@ -1878,31 +1945,31 @@
         <v>22</v>
       </c>
       <c r="AR8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS8" t="n">
         <v>5</v>
       </c>
       <c r="AT8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AU8" t="n">
         <v>1</v>
       </c>
       <c r="AV8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW8" t="n">
         <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY8" t="n">
         <v>30</v>
       </c>
       <c r="AZ8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1911,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="BC8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-19-2011-12</t>
+          <t>2012-03-19</t>
         </is>
       </c>
     </row>
@@ -2018,10 +2085,10 @@
         <v>-5.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF9" t="n">
         <v>24</v>
@@ -2030,7 +2097,7 @@
         <v>24</v>
       </c>
       <c r="AH9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI9" t="n">
         <v>26</v>
@@ -2072,7 +2139,7 @@
         <v>26</v>
       </c>
       <c r="AV9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW9" t="n">
         <v>27</v>
@@ -2087,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="BA9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB9" t="n">
         <v>28</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-19-2011-12</t>
+          <t>2012-03-19</t>
         </is>
       </c>
     </row>
@@ -2122,34 +2189,34 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" t="n">
         <v>18</v>
       </c>
       <c r="F10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" t="n">
-        <v>0.419</v>
+        <v>0.429</v>
       </c>
       <c r="H10" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="J10" t="n">
         <v>81.5</v>
       </c>
       <c r="K10" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L10" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M10" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="N10" t="n">
         <v>0.385</v>
@@ -2158,25 +2225,25 @@
         <v>15.6</v>
       </c>
       <c r="P10" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.763</v>
+        <v>0.764</v>
       </c>
       <c r="R10" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="S10" t="n">
         <v>30</v>
       </c>
       <c r="T10" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="U10" t="n">
         <v>21.9</v>
       </c>
       <c r="V10" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="W10" t="n">
         <v>8.4</v>
@@ -2188,25 +2255,25 @@
         <v>4.3</v>
       </c>
       <c r="Z10" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA10" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>98.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="AC10" t="n">
         <v>-1.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE10" t="n">
         <v>22</v>
       </c>
       <c r="AF10" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AG10" t="n">
         <v>22</v>
@@ -2218,7 +2285,7 @@
         <v>8</v>
       </c>
       <c r="AJ10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK10" t="n">
         <v>6</v>
@@ -2230,10 +2297,10 @@
         <v>6</v>
       </c>
       <c r="AN10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO10" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AP10" t="n">
         <v>25</v>
@@ -2254,7 +2321,7 @@
         <v>7</v>
       </c>
       <c r="AV10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW10" t="n">
         <v>8</v>
@@ -2263,7 +2330,7 @@
         <v>9</v>
       </c>
       <c r="AY10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ10" t="n">
         <v>28</v>
@@ -2272,7 +2339,7 @@
         <v>29</v>
       </c>
       <c r="BB10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC10" t="n">
         <v>22</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-19-2011-12</t>
+          <t>2012-03-19</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
         <v>14</v>
@@ -2439,7 +2506,7 @@
         <v>16</v>
       </c>
       <c r="AW11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX11" t="n">
         <v>21</v>
@@ -2454,7 +2521,7 @@
         <v>26</v>
       </c>
       <c r="BB11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC11" t="n">
         <v>18</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-19-2011-12</t>
+          <t>2012-03-19</t>
         </is>
       </c>
     </row>
@@ -2564,22 +2631,22 @@
         <v>2.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG12" t="n">
         <v>8</v>
       </c>
       <c r="AH12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ12" t="n">
         <v>20</v>
@@ -2603,7 +2670,7 @@
         <v>3</v>
       </c>
       <c r="AQ12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR12" t="n">
         <v>7</v>
@@ -2618,7 +2685,7 @@
         <v>30</v>
       </c>
       <c r="AV12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW12" t="n">
         <v>13</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-19-2011-12</t>
+          <t>2012-03-19</t>
         </is>
       </c>
     </row>
@@ -2746,13 +2813,13 @@
         <v>2.1</v>
       </c>
       <c r="AD13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG13" t="n">
         <v>7</v>
@@ -2767,7 +2834,7 @@
         <v>17</v>
       </c>
       <c r="AK13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL13" t="n">
         <v>5</v>
@@ -2806,10 +2873,10 @@
         <v>14</v>
       </c>
       <c r="AX13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ13" t="n">
         <v>25</v>
@@ -2821,7 +2888,7 @@
         <v>12</v>
       </c>
       <c r="BC13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-19-2011-12</t>
+          <t>2012-03-19</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>2.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
@@ -2937,7 +3004,7 @@
         <v>5</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH14" t="n">
         <v>4</v>
@@ -2979,7 +3046,7 @@
         <v>2</v>
       </c>
       <c r="AU14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV14" t="n">
         <v>21</v>
@@ -2994,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="AZ14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA14" t="n">
         <v>9</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-19-2011-12</t>
+          <t>2012-03-19</t>
         </is>
       </c>
     </row>
@@ -3110,13 +3177,13 @@
         <v>2</v>
       </c>
       <c r="AD15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG15" t="n">
         <v>8</v>
@@ -3182,10 +3249,10 @@
         <v>14</v>
       </c>
       <c r="BB15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-19-2011-12</t>
+          <t>2012-03-19</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3337,7 +3404,7 @@
         <v>27</v>
       </c>
       <c r="AS16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT16" t="n">
         <v>14</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-19-2011-12</t>
+          <t>2012-03-19</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-1.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE17" t="n">
         <v>21</v>
@@ -3486,7 +3553,7 @@
         <v>21</v>
       </c>
       <c r="AH17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI17" t="n">
         <v>11</v>
@@ -3507,7 +3574,7 @@
         <v>16</v>
       </c>
       <c r="AO17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP17" t="n">
         <v>22</v>
@@ -3528,7 +3595,7 @@
         <v>4</v>
       </c>
       <c r="AV17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW17" t="n">
         <v>11</v>
@@ -3540,7 +3607,7 @@
         <v>13</v>
       </c>
       <c r="AZ17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA17" t="n">
         <v>18</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-19-2011-12</t>
+          <t>2012-03-19</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F18" t="n">
         <v>24</v>
       </c>
       <c r="G18" t="n">
-        <v>0.489</v>
+        <v>0.478</v>
       </c>
       <c r="H18" t="n">
         <v>48.2</v>
@@ -3596,10 +3663,10 @@
         <v>35.7</v>
       </c>
       <c r="J18" t="n">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="K18" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L18" t="n">
         <v>6.9</v>
@@ -3608,34 +3675,34 @@
         <v>20.5</v>
       </c>
       <c r="N18" t="n">
-        <v>0.337</v>
+        <v>0.335</v>
       </c>
       <c r="O18" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="P18" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="Q18" t="n">
         <v>0.769</v>
       </c>
       <c r="R18" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="S18" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T18" t="n">
-        <v>44.7</v>
+        <v>44.6</v>
       </c>
       <c r="U18" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="V18" t="n">
         <v>15.6</v>
       </c>
       <c r="W18" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X18" t="n">
         <v>4.1</v>
@@ -3644,22 +3711,22 @@
         <v>5.8</v>
       </c>
       <c r="Z18" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AA18" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AB18" t="n">
         <v>98.2</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AD18" t="n">
         <v>2</v>
       </c>
       <c r="AE18" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AF18" t="n">
         <v>18</v>
@@ -3674,7 +3741,7 @@
         <v>20</v>
       </c>
       <c r="AJ18" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AK18" t="n">
         <v>24</v>
@@ -3686,7 +3753,7 @@
         <v>10</v>
       </c>
       <c r="AN18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO18" t="n">
         <v>4</v>
@@ -3701,7 +3768,7 @@
         <v>6</v>
       </c>
       <c r="AS18" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AT18" t="n">
         <v>3</v>
@@ -3713,7 +3780,7 @@
         <v>26</v>
       </c>
       <c r="AW18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX18" t="n">
         <v>29</v>
@@ -3728,7 +3795,7 @@
         <v>3</v>
       </c>
       <c r="BB18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC18" t="n">
         <v>17</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-19-2011-12</t>
+          <t>2012-03-19</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
       </c>
       <c r="F19" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19" t="n">
-        <v>0.319</v>
+        <v>0.326</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
@@ -3778,7 +3845,7 @@
         <v>33.7</v>
       </c>
       <c r="J19" t="n">
-        <v>79.3</v>
+        <v>79.2</v>
       </c>
       <c r="K19" t="n">
         <v>0.426</v>
@@ -3790,16 +3857,16 @@
         <v>23.8</v>
       </c>
       <c r="N19" t="n">
-        <v>0.348</v>
+        <v>0.35</v>
       </c>
       <c r="O19" t="n">
-        <v>16.9</v>
+        <v>16.7</v>
       </c>
       <c r="P19" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.774</v>
+        <v>0.772</v>
       </c>
       <c r="R19" t="n">
         <v>11.8</v>
@@ -3811,10 +3878,10 @@
         <v>39.7</v>
       </c>
       <c r="U19" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="V19" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W19" t="n">
         <v>7.3</v>
@@ -3826,13 +3893,13 @@
         <v>5.1</v>
       </c>
       <c r="Z19" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA19" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB19" t="n">
-        <v>92.7</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="AC19" t="n">
         <v>-6.2</v>
@@ -3871,13 +3938,13 @@
         <v>14</v>
       </c>
       <c r="AO19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP19" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AQ19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR19" t="n">
         <v>12</v>
@@ -3892,22 +3959,22 @@
         <v>24</v>
       </c>
       <c r="AV19" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AW19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX19" t="n">
         <v>28</v>
       </c>
       <c r="AY19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB19" t="n">
         <v>25</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-19-2011-12</t>
+          <t>2012-03-19</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-5</v>
       </c>
       <c r="AD20" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4032,16 +4099,16 @@
         <v>28</v>
       </c>
       <c r="AH20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ20" t="n">
         <v>26</v>
       </c>
       <c r="AK20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL20" t="n">
         <v>28</v>
@@ -4059,7 +4126,7 @@
         <v>28</v>
       </c>
       <c r="AQ20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR20" t="n">
         <v>13</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-19-2011-12</t>
+          <t>2012-03-19</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>1.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE21" t="n">
         <v>19</v>
@@ -4214,7 +4281,7 @@
         <v>19</v>
       </c>
       <c r="AH21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI21" t="n">
         <v>21</v>
@@ -4223,7 +4290,7 @@
         <v>18</v>
       </c>
       <c r="AK21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL21" t="n">
         <v>8</v>
@@ -4232,7 +4299,7 @@
         <v>3</v>
       </c>
       <c r="AN21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO21" t="n">
         <v>6</v>
@@ -4274,10 +4341,10 @@
         <v>2</v>
       </c>
       <c r="BB21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-19-2011-12</t>
+          <t>2012-03-19</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>6.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4426,13 +4493,13 @@
         <v>2</v>
       </c>
       <c r="AR22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU22" t="n">
         <v>27</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-19-2011-12</t>
+          <t>2012-03-19</t>
         </is>
       </c>
     </row>
@@ -4488,61 +4555,61 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E23" t="n">
         <v>29</v>
       </c>
       <c r="F23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G23" t="n">
-        <v>0.617</v>
+        <v>0.63</v>
       </c>
       <c r="H23" t="n">
         <v>48.4</v>
       </c>
       <c r="I23" t="n">
-        <v>34</v>
+        <v>34.2</v>
       </c>
       <c r="J23" t="n">
-        <v>77.2</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.44</v>
+        <v>0.442</v>
       </c>
       <c r="L23" t="n">
-        <v>10.1</v>
+        <v>10.3</v>
       </c>
       <c r="M23" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="N23" t="n">
-        <v>0.382</v>
+        <v>0.385</v>
       </c>
       <c r="O23" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="P23" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.644</v>
+        <v>0.648</v>
       </c>
       <c r="R23" t="n">
         <v>11</v>
       </c>
       <c r="S23" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T23" t="n">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="U23" t="n">
-        <v>20.2</v>
+        <v>20.5</v>
       </c>
       <c r="V23" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W23" t="n">
         <v>6.6</v>
@@ -4554,16 +4621,16 @@
         <v>4.3</v>
       </c>
       <c r="Z23" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="AA23" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB23" t="n">
-        <v>93.59999999999999</v>
+        <v>94.3</v>
       </c>
       <c r="AC23" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="AD23" t="n">
         <v>2</v>
@@ -4572,10 +4639,10 @@
         <v>4</v>
       </c>
       <c r="AF23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH23" t="n">
         <v>12</v>
@@ -4587,7 +4654,7 @@
         <v>29</v>
       </c>
       <c r="AK23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4596,10 +4663,10 @@
         <v>1</v>
       </c>
       <c r="AN23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO23" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AP23" t="n">
         <v>10</v>
@@ -4608,19 +4675,19 @@
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU23" t="n">
         <v>20</v>
       </c>
       <c r="AV23" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AW23" t="n">
         <v>28</v>
@@ -4629,19 +4696,19 @@
         <v>27</v>
       </c>
       <c r="AY23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZ23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA23" t="n">
         <v>8</v>
       </c>
       <c r="BB23" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="BC23" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-19-2011-12</t>
+          <t>2012-03-19</t>
         </is>
       </c>
     </row>
@@ -4670,55 +4737,55 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F24" t="n">
         <v>20</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.556</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
       </c>
       <c r="I24" t="n">
-        <v>37.8</v>
+        <v>37.6</v>
       </c>
       <c r="J24" t="n">
-        <v>83.90000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="K24" t="n">
-        <v>0.45</v>
+        <v>0.448</v>
       </c>
       <c r="L24" t="n">
         <v>5.5</v>
       </c>
       <c r="M24" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.367</v>
+        <v>0.366</v>
       </c>
       <c r="O24" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="P24" t="n">
-        <v>18.1</v>
+        <v>18.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.736</v>
+        <v>0.735</v>
       </c>
       <c r="R24" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S24" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="T24" t="n">
-        <v>43.5</v>
+        <v>43.4</v>
       </c>
       <c r="U24" t="n">
         <v>21.8</v>
@@ -4727,40 +4794,40 @@
         <v>10.8</v>
       </c>
       <c r="W24" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X24" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z24" t="n">
         <v>17.8</v>
       </c>
       <c r="AA24" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="AB24" t="n">
-        <v>94.40000000000001</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
         <v>6</v>
@@ -4769,7 +4836,7 @@
         <v>3</v>
       </c>
       <c r="AK24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL24" t="n">
         <v>23</v>
@@ -4790,22 +4857,22 @@
         <v>23</v>
       </c>
       <c r="AR24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS24" t="n">
         <v>2</v>
       </c>
       <c r="AT24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AU24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV24" t="n">
         <v>1</v>
       </c>
       <c r="AW24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX24" t="n">
         <v>17</v>
@@ -4814,13 +4881,13 @@
         <v>14</v>
       </c>
       <c r="AZ24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA24" t="n">
         <v>30</v>
       </c>
       <c r="BB24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC24" t="n">
         <v>3</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-19-2011-12</t>
+          <t>2012-03-19</t>
         </is>
       </c>
     </row>
@@ -4930,10 +4997,10 @@
         <v>-0.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF25" t="n">
         <v>15</v>
@@ -4963,7 +5030,7 @@
         <v>15</v>
       </c>
       <c r="AO25" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AP25" t="n">
         <v>24</v>
@@ -4972,7 +5039,7 @@
         <v>13</v>
       </c>
       <c r="AR25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS25" t="n">
         <v>11</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-19-2011-12</t>
+          <t>2012-03-19</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>1.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE26" t="n">
         <v>19</v>
@@ -5172,10 +5239,10 @@
         <v>9</v>
       </c>
       <c r="AX26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ26" t="n">
         <v>17</v>
@@ -5187,7 +5254,7 @@
         <v>13</v>
       </c>
       <c r="BC26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-19-2011-12</t>
+          <t>2012-03-19</t>
         </is>
       </c>
     </row>
@@ -5294,10 +5361,10 @@
         <v>-6</v>
       </c>
       <c r="AD27" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF27" t="n">
         <v>24</v>
@@ -5342,7 +5409,7 @@
         <v>26</v>
       </c>
       <c r="AT27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU27" t="n">
         <v>29</v>
@@ -5360,7 +5427,7 @@
         <v>28</v>
       </c>
       <c r="AZ27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA27" t="n">
         <v>13</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-19-2011-12</t>
+          <t>2012-03-19</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>4</v>
       </c>
       <c r="AD28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE28" t="n">
         <v>4</v>
@@ -5497,7 +5564,7 @@
         <v>9</v>
       </c>
       <c r="AK28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL28" t="n">
         <v>2</v>
@@ -5512,13 +5579,13 @@
         <v>21</v>
       </c>
       <c r="AP28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ28" t="n">
         <v>27</v>
       </c>
       <c r="AR28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-19-2011-12</t>
+          <t>2012-03-19</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-3.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
         <v>26</v>
@@ -5679,7 +5746,7 @@
         <v>27</v>
       </c>
       <c r="AK29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL29" t="n">
         <v>22</v>
@@ -5688,13 +5755,13 @@
         <v>19</v>
       </c>
       <c r="AN29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO29" t="n">
         <v>16</v>
       </c>
       <c r="AP29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ29" t="n">
         <v>11</v>
@@ -5712,7 +5779,7 @@
         <v>12</v>
       </c>
       <c r="AV29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW29" t="n">
         <v>24</v>
@@ -5727,7 +5794,7 @@
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB29" t="n">
         <v>27</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-19-2011-12</t>
+          <t>2012-03-19</t>
         </is>
       </c>
     </row>
@@ -5840,10 +5907,10 @@
         <v>-0.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF30" t="n">
         <v>15</v>
@@ -5855,7 +5922,7 @@
         <v>6</v>
       </c>
       <c r="AI30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ30" t="n">
         <v>5</v>
@@ -5870,7 +5937,7 @@
         <v>29</v>
       </c>
       <c r="AN30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO30" t="n">
         <v>7</v>
@@ -5882,7 +5949,7 @@
         <v>18</v>
       </c>
       <c r="AR30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS30" t="n">
         <v>19</v>
@@ -5894,10 +5961,10 @@
         <v>12</v>
       </c>
       <c r="AV30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX30" t="n">
         <v>6</v>
@@ -5912,7 +5979,7 @@
         <v>11</v>
       </c>
       <c r="BB30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC30" t="n">
         <v>19</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-19-2011-12</t>
+          <t>2012-03-19</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-8.199999999999999</v>
       </c>
       <c r="AD31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6034,7 +6101,7 @@
         <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI31" t="n">
         <v>15</v>
@@ -6055,7 +6122,7 @@
         <v>24</v>
       </c>
       <c r="AO31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP31" t="n">
         <v>16</v>
@@ -6067,7 +6134,7 @@
         <v>11</v>
       </c>
       <c r="AS31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT31" t="n">
         <v>21</v>
@@ -6076,7 +6143,7 @@
         <v>28</v>
       </c>
       <c r="AV31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW31" t="n">
         <v>15</v>
@@ -6094,7 +6161,7 @@
         <v>24</v>
       </c>
       <c r="BB31" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BC31" t="n">
         <v>29</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-19-2011-12</t>
+          <t>2012-03-19</t>
         </is>
       </c>
     </row>
